--- a/자료/loiloi 데이터베이스 .xlsx
+++ b/자료/loiloi 데이터베이스 .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LOILOI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\혁진\portfolio\자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
   <si>
     <t>MEMBER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,57 @@
   </si>
   <si>
     <t>COMMENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어장번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORD_ARRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN_ARRAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어장제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -411,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +516,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N31"/>
+  <dimension ref="C3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,7 +857,7 @@
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1197,6 +1266,13 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
+      <c r="J25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
@@ -1214,6 +1290,21 @@
       <c r="G26" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
@@ -1231,6 +1322,21 @@
       <c r="G27" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
@@ -1248,6 +1354,21 @@
       <c r="G28" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
@@ -1265,6 +1386,21 @@
       <c r="G29" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
@@ -1282,6 +1418,19 @@
       <c r="G30" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="J30" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
@@ -1297,13 +1446,44 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C3:H3"/>
+    <mergeCell ref="J25:N25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
